--- a/results/I3_N5_M2_T15_C100_DepCentral_s3_mean_res.xlsx
+++ b/results/I3_N5_M2_T15_C100_DepCentral_s3_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1176.2560844364</v>
+        <v>1085.537489403841</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2060000896453857</v>
+        <v>0.1469998359680176</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3.102061574274683e-13</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.18901356216583</v>
+        <v>25.94820739395058</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.91726967124383</v>
+        <v>7.925378191800927</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.694340545865074</v>
+        <v>7.514660201691672</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>801.7099999996132</v>
+        <v>823.9999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>355.58</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8.105559530905802</v>
+        <v>5.069516742254631</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>8.175076273160398</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.23570364914815</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>11.23570364914817</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.94333144582801</v>
+        <v>10.53229921552284</v>
       </c>
     </row>
     <row r="8">
@@ -968,10 +968,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>6</v>
@@ -996,10 +996,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>137.8640000000496</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="4">
@@ -1074,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>83.25400000001073</v>
+        <v>107.8</v>
       </c>
     </row>
     <row r="5">
@@ -1085,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>142.3069999999073</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="6">
@@ -1096,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>101.0749999999316</v>
+        <v>112.2</v>
       </c>
     </row>
     <row r="7">
@@ -1107,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>37.69099999999341</v>
+        <v>170.2</v>
       </c>
     </row>
     <row r="8">
@@ -1118,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>142.3069999998995</v>
+        <v>112.2</v>
       </c>
     </row>
     <row r="9">
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>137.8640000000626</v>
+        <v>170.2</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>42.30699999989905</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="3">
@@ -1187,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>37.86400000006226</v>
+        <v>70.19999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1234,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>9.77</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="3">
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4.765</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4">
@@ -1256,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1267,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>10.594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>10.429</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
